--- a/quize/scores/scores.xlsx
+++ b/quize/scores/scores.xlsx
@@ -231,18 +231,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -259,7 +253,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,13 +565,23 @@
   <dimension ref="A1:V42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -653,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C2">
         <v>9</v>
@@ -704,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2">
         <v>2</v>
@@ -713,8 +717,8 @@
         <v>1</v>
       </c>
       <c r="V2">
-        <f t="shared" ref="V2:V39" si="0">SUM(C2:U2)</f>
-        <v>27</v>
+        <f>SUM(C2:U2)</f>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -722,7 +726,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -782,7 +786,7 @@
         <v>1</v>
       </c>
       <c r="V3">
-        <f t="shared" si="0"/>
+        <f>SUM(C3:U3)</f>
         <v>27</v>
       </c>
     </row>
@@ -791,7 +795,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>9</v>
@@ -851,7 +855,7 @@
         <v>1</v>
       </c>
       <c r="V4">
-        <f t="shared" si="0"/>
+        <f>SUM(C4:U4)</f>
         <v>27</v>
       </c>
     </row>
@@ -860,7 +864,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>9</v>
@@ -920,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="V5">
-        <f t="shared" si="0"/>
+        <f>SUM(C5:U5)</f>
         <v>27</v>
       </c>
     </row>
@@ -929,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>9</v>
@@ -989,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="V6">
-        <f t="shared" si="0"/>
+        <f>SUM(C6:U6)</f>
         <v>27</v>
       </c>
     </row>
@@ -998,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>9</v>
@@ -1055,11 +1059,11 @@
         <v>2</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <f>SUM(C7:U7)</f>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -1067,7 +1071,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C8">
         <v>9</v>
@@ -1118,16 +1122,16 @@
         <v>1</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <f t="shared" si="0"/>
+        <f>SUM(C8:U8)</f>
         <v>26</v>
       </c>
     </row>
@@ -1136,7 +1140,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -1187,16 +1191,16 @@
         <v>1</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9">
-        <f t="shared" si="0"/>
+        <f>SUM(C9:U9)</f>
         <v>26</v>
       </c>
     </row>
@@ -1205,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1256,17 +1260,17 @@
         <v>1</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f>SUM(C10:U10)</f>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -1274,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -1334,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <f t="shared" si="0"/>
+        <f>SUM(C11:U11)</f>
         <v>25</v>
       </c>
     </row>
@@ -1343,7 +1347,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C12">
         <v>9</v>
@@ -1403,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="V12">
-        <f t="shared" si="0"/>
+        <f>SUM(C12:U12)</f>
         <v>25</v>
       </c>
     </row>
@@ -1412,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>9</v>
@@ -1463,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13">
         <v>0</v>
       </c>
       <c r="V13">
-        <f t="shared" si="0"/>
+        <f>SUM(C13:U13)</f>
         <v>25</v>
       </c>
     </row>
@@ -1481,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C14">
         <v>9</v>
@@ -1532,16 +1536,16 @@
         <v>1</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14">
         <v>0</v>
       </c>
       <c r="V14">
-        <f t="shared" si="0"/>
+        <f>SUM(C14:U14)</f>
         <v>25</v>
       </c>
     </row>
@@ -1550,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C15">
         <v>9</v>
@@ -1601,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -1610,8 +1614,8 @@
         <v>0</v>
       </c>
       <c r="V15">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <f>SUM(C15:U15)</f>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -1619,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16">
         <v>9</v>
@@ -1679,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="V16">
-        <f t="shared" si="0"/>
+        <f>SUM(C16:U16)</f>
         <v>24</v>
       </c>
     </row>
@@ -1688,7 +1692,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>9</v>
@@ -1730,13 +1734,13 @@
         <v>1</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
         <v>1</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -1748,8 +1752,8 @@
         <v>0</v>
       </c>
       <c r="V17">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <f>SUM(C17:U17)</f>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
@@ -1757,7 +1761,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <v>9</v>
@@ -1799,10 +1803,10 @@
         <v>1</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -1817,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="V18">
-        <f t="shared" si="0"/>
+        <f>SUM(C18:U18)</f>
         <v>22</v>
       </c>
     </row>
@@ -1826,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19">
         <v>9</v>
@@ -1853,7 +1857,7 @@
         <v>1</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -1868,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -1886,8 +1890,8 @@
         <v>0</v>
       </c>
       <c r="V19">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f>SUM(C19:U19)</f>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
@@ -1895,7 +1899,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C20">
         <v>9</v>
@@ -1919,7 +1923,7 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1955,16 +1959,16 @@
         <v>0</v>
       </c>
       <c r="V20">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f>SUM(C20:U20)</f>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C21">
         <v>9</v>
@@ -1997,16 +2001,16 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21">
         <v>1</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -2024,8 +2028,8 @@
         <v>0</v>
       </c>
       <c r="V21">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <f>SUM(C21:U21)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
@@ -2033,7 +2037,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C22">
         <v>9</v>
@@ -2048,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2087,14 +2091,14 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>SUM(C22:U22)</f>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
@@ -2102,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C23">
         <v>9</v>
@@ -2111,19 +2115,19 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2132,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -2141,10 +2145,10 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -2156,14 +2160,14 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23">
         <v>0</v>
       </c>
       <c r="V23">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>SUM(C23:U23)</f>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
@@ -2171,17 +2175,68 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C24">
         <v>9</v>
       </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
       <c r="U24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>SUM(C24:U24)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
@@ -2189,7 +2244,7 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C25">
         <v>9</v>
@@ -2219,10 +2274,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2249,23 +2304,77 @@
         <v>0</v>
       </c>
       <c r="V25">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>SUM(C25:U25)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26">
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C26">
         <v>9</v>
       </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
       <c r="V26">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>SUM(C26:U26)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
@@ -2273,13 +2382,13 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C27">
         <v>9</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2333,139 +2442,196 @@
         <v>0</v>
       </c>
       <c r="V27">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>SUM(C27:U27)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C28">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
         <v>0</v>
       </c>
       <c r="V28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(C28:U28)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="V29">
-        <f t="shared" si="0"/>
+        <f>SUM(C29:U29)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="V30">
-        <f t="shared" si="0"/>
+        <f>SUM(C30:U30)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="V31">
-        <f t="shared" si="0"/>
+        <f>SUM(C31:U31)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="V32">
-        <f t="shared" si="0"/>
+        <f>SUM(C32:U32)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="V33">
-        <f t="shared" si="0"/>
+        <f>SUM(C33:U33)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="V34">
-        <f t="shared" si="0"/>
+        <f>SUM(C34:U34)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="V35">
-        <f t="shared" si="0"/>
+        <f>SUM(C35:U35)</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="V36">
-        <f t="shared" si="0"/>
+        <f>SUM(C36:U36)</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <f>SUM(C37:U37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
         <v>43</v>
       </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>47</v>
-      </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="V38">
-        <f t="shared" si="0"/>
+        <f>SUM(C38:U38)</f>
         <v>0</v>
       </c>
     </row>
@@ -2477,14 +2643,14 @@
         <v>0</v>
       </c>
       <c r="V39">
-        <f t="shared" si="0"/>
+        <f>SUM(C39:U39)</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>SUM(A2:A39)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B40">
         <f>COUNTA(B2:B39)</f>
@@ -2499,7 +2665,7 @@
       </c>
       <c r="V40">
         <f>COUNTIFS(V2:V39,"&gt;=9",V2:V39,"&lt;16")</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
@@ -2511,7 +2677,7 @@
       </c>
       <c r="V41">
         <f>COUNTIFS(V2:V39,"&gt;16",V2:V39,"&lt;=26")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
@@ -2520,7 +2686,7 @@
       </c>
       <c r="V42">
         <f>COUNTIF(V2:V39,"&gt;26")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/quize/scores/scores.xlsx
+++ b/quize/scores/scores.xlsx
@@ -565,8 +565,8 @@
   <dimension ref="A1:V42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2175,7 +2175,7 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C24">
         <v>9</v>
@@ -2184,31 +2184,31 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="V24">
         <f>SUM(C24:U24)</f>
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
@@ -2244,7 +2244,7 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25">
         <v>9</v>
@@ -2313,7 +2313,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C26">
         <v>9</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C27">
         <v>9</v>
@@ -2412,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2443,12 +2443,15 @@
       </c>
       <c r="V27">
         <f>SUM(C27:U27)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C28">
         <v>9</v>
@@ -2513,20 +2516,77 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C29">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
         <v>0</v>
       </c>
       <c r="V29">
         <f>SUM(C29:U29)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -2538,7 +2598,7 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -2550,7 +2610,7 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2562,7 +2622,7 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -2574,7 +2634,7 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -2621,9 +2681,6 @@
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>1</v>
-      </c>
       <c r="B38" t="s">
         <v>43</v>
       </c>
@@ -2650,7 +2707,7 @@
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>SUM(A2:A39)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B40">
         <f>COUNTA(B2:B39)</f>
@@ -2677,7 +2734,7 @@
       </c>
       <c r="V41">
         <f>COUNTIFS(V2:V39,"&gt;16",V2:V39,"&lt;=26")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
@@ -2695,7 +2752,7 @@
       <sortCondition descending="1" ref="V1:V39"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:V39">
+  <sortState ref="B2:V39">
     <sortCondition descending="1" ref="V2:V39"/>
     <sortCondition ref="B2:B39"/>
   </sortState>
